--- a/files/signal.xlsx
+++ b/files/signal.xlsx
@@ -319,1502 +319,1502 @@
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>1.8</v>
+        <v>1.69383971447229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>1.7258305497517892</v>
+        <v>1.5359187053279</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1.5108827031799068</v>
+        <v>1.18639795540758</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1.1787991669021718</v>
+        <v>0.811026498245355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.7671558773322048</v>
+        <v>0.352089916508366</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.3227149415224165</v>
+        <v>-0.0573151737275868</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-0.10477671601649485</v>
+        <v>-0.473429920505604</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-0.46940014809902875</v>
+        <v>-0.740295045702111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-0.7355020938842022</v>
+        <v>-0.829813764050713</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-0.8827695553056388</v>
+        <v>-1.01272150221045</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-0.9091058500793153</v>
+        <v>-0.853430195915744</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-0.8307679966296977</v>
+        <v>-0.74058999652997</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-0.679627395029191</v>
+        <v>-0.514430398425701</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-0.4978682792799725</v>
+        <v>-0.295870315158262</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-0.33087139925034703</v>
+        <v>-0.175517310004521</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-0.21937078845626312</v>
+        <v>-0.240335188017989</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-0.19215512687363645</v>
+        <v>-0.281555050275515</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-0.2605686756310107</v>
+        <v>-0.406418490815276</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-0.41583685551143257</v>
+        <v>-0.641846672727063</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-0.6298206249290383</v>
+        <v>-0.841591361245693</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-0.8592494099983974</v>
+        <v>-1.03031680200425</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>-1.0528804701416985</v>
+        <v>-1.20441623578344</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>-1.160485278826091</v>
+        <v>-1.14844648030267</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>-1.142172087995858</v>
+        <v>-1.08043818486386</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>-0.9764005758954395</v>
+        <v>-0.605340483326459</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>-0.6651756898420367</v>
+        <v>-0.264209353698171</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>-0.2353219366381167</v>
+        <v>0.20699194027016</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.26461731798061827</v>
+        <v>0.761409329488937</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.7715394426704244</v>
+        <v>1.14905356728643</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1.2179187895283858</v>
+        <v>1.54474493502671</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1.543220694922132</v>
+        <v>1.67908897221961</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1.704555101056367</v>
+        <v>1.79601162550143</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1.6845555690525638</v>
+        <v>1.55436968573296</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1.4948792953768297</v>
+        <v>1.05219192779467</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1.1744691319642437</v>
+        <v>0.807312576014144</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.7826791084381092</v>
+        <v>0.321027794356997</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.38836756715789594</v>
+        <v>0.0467254078621199</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.05691104586650564</v>
+        <v>-0.151606144335079</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>-0.1623934689906702</v>
+        <v>-0.206064524869148</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>-0.24601834729921018</v>
+        <v>-0.212007423904497</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>-0.2009221974240062</v>
+        <v>0.0182488412506631</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>-0.06313328706629559</v>
+        <v>0.0882815908147569</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.10976132741404422</v>
+        <v>0.269858312205422</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.25091558517428364</v>
+        <v>0.334739970436197</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.2989361434151618</v>
+        <v>0.21881924250764</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.21199269188192782</v>
+        <v>0.0248937045128058</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>-0.021721055745901885</v>
+        <v>-0.36087865616275</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>-0.3796064340447848</v>
+        <v>-0.84424878216319</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>-0.8076085939696401</v>
+        <v>-1.31791936262617</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>-1.2302178160465151</v>
+        <v>-1.4701886565318</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>-1.565685424949237</v>
+        <v>-1.7710245025882</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>-1.743365119139133</v>
+        <v>-1.7117146422502</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>-1.719449749355382</v>
+        <v>-1.45680420015023</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>-1.48752966889718</v>
+        <v>-1.07312432087124</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>-1.081371291697594</v>
+        <v>-0.611606630075834</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>-0.5689374404255851</v>
+        <v>-0.0594342603566058</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>-0.038615652223665364</v>
+        <v>0.415864375199993</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.4195417515714962</v>
+        <v>0.809982366522135</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.7334673209572812</v>
+        <v>0.824634660186379</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.8651083236970745</v>
+        <v>0.860756730527945</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.8189561861739019</v>
+        <v>0.6587810723474</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.6407827943603213</v>
+        <v>0.397393492195024</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.40651937331182897</v>
+        <v>0.153303663155037</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.2035851794633904</v>
+        <v>0.0972786792799264</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.10891860602158143</v>
+        <v>0.167209172950009</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.16897656608332057</v>
+        <v>0.315835040526884</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.3867376732615475</v>
+        <v>0.731423846885209</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.7192476136520152</v>
+        <v>1.0482279098532</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>1.0867754526780564</v>
+        <v>1.38962482078044</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>1.3917697291887752</v>
+        <v>1.5625984829595</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>1.5432206949221325</v>
+        <v>1.43776631309019</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>1.4804318950628734</v>
+        <v>1.17821171350629</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>1.1900574105769168</v>
+        <v>0.731771697793688</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.7117014389273233</v>
+        <v>0.0409018155210331</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.13012765165659257</v>
+        <v>-0.390090270013752</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>-0.444456186415682</v>
+        <v>-0.77956354427303</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>-0.903353722509654</v>
+        <v>-1.11620728244325</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>-1.1667444289033049</v>
+        <v>-1.21741806189891</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>-1.204196583138103</v>
+        <v>-1.01858132404835</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>-1.0425795790309793</v>
+        <v>-0.808016696687512</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>-0.7587845787514974</v>
+        <v>-0.362240108660835</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>-0.45870050267528284</v>
+        <v>-0.198143424762717</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>-0.24774576591997843</v>
+        <v>-0.158905045591955</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>-0.20083945557837202</v>
+        <v>-0.381433233026989</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>-0.3402066409188087</v>
+        <v>-0.609017062163386</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>-0.6275816398721549</v>
+        <v>-0.998928007283757</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>-0.9735804140308659</v>
+        <v>-1.27523216218441</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>-1.2622278122467216</v>
+        <v>-1.41010155001761</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>-1.3841681751751473</v>
+        <v>-1.31799238743754</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>-1.2692728276457554</v>
+        <v>-0.95197600843338</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>-0.9091058500793177</v>
+        <v>-0.370174188199721</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>-0.3622464424865924</v>
+        <v>0.177418267752439</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.2597943509714191</v>
+        <v>0.855613114193617</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.8226659644116591</v>
+        <v>1.20362604442326</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>1.2069488378970064</v>
+        <v>1.38012012118689</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>1.3425949835150295</v>
+        <v>1.24560449391478</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>1.2295549408392956</v>
+        <v>0.965140128047975</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.9378586542893522</v>
+        <v>0.514837655370507</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.5864265855066488</v>
+        <v>0.257975108201496</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.30642120649599125</v>
+        <v>0.180217370452428</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.19999999999999996</v>
+        <v>0.3152792647033</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.30722921414726545</v>
+        <v>0.650888304369767</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.5918843607786972</v>
+        <v>0.939392125288098</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.9513231563384453</v>
+        <v>1.31378939872345</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>1.2481447418267402</v>
+        <v>1.38058193343735</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>1.3542435718623262</v>
+        <v>1.25472382806492</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>1.1934508695005792</v>
+        <v>0.777735901974215</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.7688214275823749</v>
+        <v>0.134777877118467</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.16505155257621382</v>
+        <v>-0.547206659647624</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>-0.4757038270583429</v>
+        <v>-0.987269045193251</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>-0.9976106159781033</v>
+        <v>-1.23721031179606</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>-1.2807050012117627</v>
+        <v>-1.29193999597627</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>-1.2798777104242078</v>
+        <v>-1.06431984096971</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>-1.0398476411349398</v>
+        <v>-0.69314232493409</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>-0.6802773551597515</v>
+        <v>-0.407403815108479</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>-0.3551412710218601</v>
+        <v>-0.221554389524485</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>-0.1994710197483167</v>
+        <v>-0.287964420666465</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>-0.28149457383536725</v>
+        <v>-0.572169318871978</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>-0.5770284951473161</v>
+        <v>-0.97648108043968</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>-0.9758590454282161</v>
+        <v>-1.28582230548098</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>-1.3189561861738928</v>
+        <v>-1.44634169658564</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>-1.454374702264038</v>
+        <v>-1.19926422049525</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>-1.2925321139989212</v>
+        <v>-0.822823779073333</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>-0.840992091479451</v>
+        <v>-0.112683535663251</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>-0.205475345239111</v>
+        <v>0.410867233426813</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.44445618641568324</v>
+        <v>0.9626587195191</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.9337642466419711</v>
+        <v>1.13335172861351</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>1.1437971507091604</v>
+        <v>1.08757715581442</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>1.0550029093843347</v>
+        <v>0.786340625791706</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.7540769650196164</v>
+        <v>0.295049902126898</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.4017838617746485</v>
+        <v>0.108545618822691</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.17233065530905312</v>
+        <v>0.116861307426593</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.1863448663188858</v>
+        <v>0.485443849673165</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.4627845038315209</v>
+        <v>0.984902390544792</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.9088252055127113</v>
+        <v>1.3390953523602</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>1.3528689428098397</v>
+        <v>1.65249066750025</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>1.6093073962785527</v>
+        <v>1.58070511331344</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>1.5508609871474783</v>
+        <v>1.11039960406533</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>1.160414098551719</v>
+        <v>0.56370372255263</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.5412632517732076</v>
+        <v>-0.154672057552689</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>-0.11964444160825188</v>
+        <v>-0.544017850792373</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>-0.6223983166143281</v>
+        <v>-0.830645190557522</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>-0.8315839860874552</v>
+        <v>-0.645261698177572</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>-0.7296288020311474</v>
+        <v>-0.44245447792431</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>-0.42376867438346605</v>
+        <v>-0.0704005821653173</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>-0.10243937149088517</v>
+        <v>0.0419720776788556</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.04254451797511538</v>
+        <v>-0.201562325301855</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>-0.10303149978892101</v>
+        <v>-0.57168163307587</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>-0.5251421777765732</v>
+        <v>-1.05010914390149</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>-1.0833018297994892</v>
+        <v>-1.56586261045902</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>-1.56568542494924</v>
+        <v>-1.82944263742702</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>-1.7760731582940368</v>
+        <v>-1.64558179112063</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>-1.6168299851669232</v>
+        <v>-1.11746472622365</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>-1.1325077342414442</v>
+        <v>-0.541300676944959</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>-0.4942168476071307</v>
+        <v>0.121641794354428</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.0703271621242112</v>
+        <v>0.343044967501791</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>0.3725133218484466</v>
+        <v>0.436532417443732</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>0.3435221654281182</v>
+        <v>0.0129163288532096</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>0.06434252040050048</v>
+        <v>-0.25697797440875</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>-0.26950456760216335</v>
+        <v>-0.508288401434445</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>-0.434804194335648</v>
+        <v>-0.315528093658593</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>-0.2819136583837903</v>
+        <v>0.167336279853675</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>0.19443167461456423</v>
+        <v>0.870185132038755</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>0.8475511940581766</v>
+        <v>1.48952929336473</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>1.439855506413227</v>
+        <v>1.76448164907397</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>1.7468902297045346</v>
+        <v>1.64217978020039</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>1.6582661921422903</v>
+        <v>1.27251351089975</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>1.2291719645054744</v>
+        <v>0.699846921071244</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>0.6573354504737632</v>
+        <v>0.202549079062606</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>0.1939716939751328</v>
+        <v>0.0594130872993295</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>0.02828358482394744</v>
+        <v>0.222008659847534</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>0.19880173834230508</v>
+        <v>0.527233071711869</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>0.5740140448897911</v>
+        <v>0.95392148675906</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>0.9133759494736604</v>
+        <v>0.951631404438218</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>0.9819243484034749</v>
+        <v>0.637546886762891</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>0.6651756898420383</v>
+        <v>0.040459736923494</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>0.029045274817362327</v>
+        <v>-0.718596903984202</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>-0.7057888514807186</v>
+        <v>-1.26918001868458</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>-1.2651561220284426</v>
+        <v>-1.41881429246119</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>-1.451149297145053</v>
+        <v>-1.18276967015324</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>-1.237678430358153</v>
+        <v>-0.791232019442753</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>-0.7839012088018178</v>
+        <v>-0.337730987350111</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>-0.35668201653512643</v>
+        <v>-0.207551894741819</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>-0.1982039405019861</v>
+        <v>-0.389416940938037</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>-0.403463906588706</v>
+        <v>-0.844949935428332</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>-0.8695169516591148</v>
+        <v>-1.37236778384802</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>-1.3440916083932164</v>
+        <v>-1.53531958146273</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>-1.5516285417979643</v>
+        <v>-1.3019372583086</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>-1.3345594809216625</v>
+        <v>-0.73061183416998</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>-0.7377943527215822</v>
+        <v>0.0977605087011347</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>0.008701318132869229</v>
+        <v>0.575202900151763</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>0.6030636513990322</v>
+        <v>0.789968776892555</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>0.8242546444877978</v>
+        <v>0.560784734177052</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>0.6457115785067865</v>
+        <v>0.297394304574999</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>0.24930305460299557</v>
+        <v>-0.0244059134871969</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>-0.07032716212421153</v>
+        <v>-0.0645484880561848</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>-0.06312096709293213</v>
+        <v>0.387126515951344</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>0.33963559549283673</v>
+        <v>0.994770807269836</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>0.9830185151256219</v>
+        <v>1.58308465767471</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>1.5659780299408386</v>
+        <v>1.80821435684071</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>1.8</v>
+        <v>1.58951048781062</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>1.5649457573773384</v>
+        <v>0.984648817158619</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>0.9769985739839452</v>
+        <v>0.47111244390073</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>0.3291785615204047</v>
+        <v>-0.121910952025526</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>-0.06614482150545276</v>
+        <v>-0.138318063562373</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>-0.04817023041754831</v>
+        <v>0.248151041686775</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>0.30261797793060213</v>
+        <v>0.655976962411782</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>0.7080770142341017</v>
+        <v>0.829127742323505</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>0.8482410861575849</v>
+        <v>0.538420556396019</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>0.5442769293201369</v>
+        <v>-0.142861958269384</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>-0.13450240125771534</v>
+        <v>-0.872900983325512</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>-0.902534826101141</v>
+        <v>-1.39222098101012</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>-1.414251412191938</v>
+        <v>-1.41808107738908</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>-1.458209647613156</v>
+        <v>-0.986698431122294</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>-1.078178347076502</v>
+        <v>-0.485523841204117</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>-0.5492440897804638</v>
+        <v>-0.280883061224268</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>-0.2192873769836846</v>
+        <v>-0.419128901926015</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>-0.30524829710150125</v>
+        <v>-0.715159260146903</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>-0.7628229544841406</v>
+        <v>-1.39759163084565</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>-1.3083768176485424</v>
+        <v>-1.57797855671636</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>-1.5838835232778434</v>
+        <v>-1.36583915270497</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>-1.3701802479864933</v>
+        <v>-0.608168757901875</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>-0.7220942827999168</v>
+        <v>0.0568810885191791</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>0.057774680230627484</v>
+        <v>0.572057947982942</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>0.59485698022402</v>
+        <v>0.679533294460496</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>0.6651756898420368</v>
+        <v>0.345225499407832</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>0.33036813582348584</v>
+        <v>-0.0933870875058031</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>-0.09945646896629085</v>
+        <v>-0.284124704049692</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>-0.25626279953534226</v>
+        <v>-0.00258005332332745</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>0.05598249469635519</v>
+        <v>0.752122482749669</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>0.7337303437201332</v>
+        <v>1.36608777499726</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>1.4306641158387081</v>
+        <v>1.71889433767613</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>1.7679364338900827</v>
+        <v>1.63867416938456</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>1.569546254141659</v>
+        <v>0.956647698402859</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>0.9750257371646965</v>
+        <v>0.350692305908698</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>0.35514127102185966</v>
+        <v>0.127137182137559</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>0.07957894470303828</v>
+        <v>0.269140468376744</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>0.2815788976678689</v>
+        <v>0.824543971578192</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>0.7705085649833772</v>
+        <v>1.13750160253897</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>1.152187780127678</v>
+        <v>1.13709073748066</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>1.0838835232778472</v>
+        <v>0.535264830475028</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>0.5012309802387963</v>
+        <v>-0.339971881966916</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>-0.3318882488245247</v>
+        <v>-1.02822239287493</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>-0.987504648446562</v>
+        <v>-1.19837086230415</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>-1.14878256822693</v>
+        <v>-0.827941214117469</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>-0.8170048944747237</v>
+        <v>-0.330738388612821</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>-0.3113984418223672</v>
+        <v>-0.0751214651006147</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>-0.0572548703504564</v>
+        <v>-0.247761064925156</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>-0.29950544767509035</v>
+        <v>-0.945125087939625</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>-0.9328073517288118</v>
+        <v>-1.50593435842103</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>-1.5656854249492302</v>
+        <v>-1.80467482082303</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>-1.78066093593733</v>
+        <v>-1.36652019138415</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>-1.4177155987742367</v>
+        <v>-0.711308105535964</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>-0.6877627022759139</v>
+        <v>-0.0229165869915611</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>-0.034312597713326176</v>
+        <v>0.218128491097474</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>0.16702447893008343</v>
+        <v>-0.151281496863843</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>-0.1331500041047794</v>
+        <v>-0.641713633747766</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>-0.6223672288271681</v>
+        <v>-0.740346209230075</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>-0.8430828607628357</v>
+        <v>-0.465352463894141</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>-0.5154692598612419</v>
+        <v>0.239751507554745</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>0.25878457875150973</v>
+        <v>1.09353779813362</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>1.058523640275797</v>
+        <v>1.4176397699991</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>1.4330764640671543</v>
+        <v>1.25658515472653</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>1.2187237827694062</v>
+        <v>0.729371126320932</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>0.6560115519094523</v>
+        <v>0.141712126016069</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>0.21937078845627034</v>
+        <v>0.329704129101505</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>0.2756943546617515</v>
+        <v>0.890893105719445</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>0.8154275956966908</v>
+        <v>1.45827013969287</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>1.4533294525394926</v>
+        <v>1.79416664974482</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>1.704286693249243</v>
+        <v>1.34840298333359</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>1.338066486633876</v>
+        <v>0.494404624750076</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>0.5536934879935479</v>
+        <v>-0.266434917028511</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>-0.1593273240764409</v>
+        <v>-0.390996419018777</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>-0.3768931866452594</v>
+        <v>-0.0148857727107022</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>-0.05313005882854449</v>
+        <v>0.462893694067071</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>0.44445618641568446</v>
+        <v>0.632947331509829</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>0.6096996910055119</v>
+        <v>0.155603127437943</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>0.18189028563017884</v>
+        <v>-0.639278187354189</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>-0.6490453984140718</v>
+        <v>-1.45543142112493</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>-1.3760652556178985</v>
+        <v>-1.58827556202766</v>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>-1.5528381830855595</v>
+        <v>-1.17049218670032</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>-1.132119652877464</v>
+        <v>-0.475512701083743</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>-0.5040662664800797</v>
+        <v>-0.196865842530478</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>-0.1987249605652721</v>
+        <v>-0.531213894359087</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>-0.4760045469343781</v>
+        <v>-1.11734304896744</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>-1.1194339241521818</v>
+        <v>-1.63080246702156</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>-1.5988790611296135</v>
+        <v>-1.51328587405798</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>-1.482518037367571</v>
+        <v>-0.73364698463208</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>-0.7794215766799851</v>
+        <v>0.0673064969540928</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>0.05906840415310782</v>
+        <v>0.509917840605467</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>0.4874325773075202</v>
+        <v>0.340930264680617</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>0.29416464917925617</v>
+        <v>-0.218258762241935</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>-0.22983876793095515</v>
+        <v>-0.492646902233071</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>-0.5227567493255918</v>
+        <v>-0.168395065668042</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>-0.20511040046328655</v>
+        <v>0.667730618150763</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>0.6066330641593346</v>
+        <v>1.40955939337289</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>1.3831992430193232</v>
+        <v>1.67622760805341</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>1.603048852741539</v>
+        <v>1.1778175577832</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>1.174120012578071</v>
+        <v>0.511622923864072</v>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>0.511449273385429</v>
+        <v>0.287633853703402</v>
       </c>
     </row>
   </sheetData>
